--- a/artfynd/A 1912-2023.xlsx
+++ b/artfynd/A 1912-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16798841</v>
+        <v>96905066</v>
       </c>
       <c r="B2" t="n">
-        <v>88853</v>
+        <v>77959</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,48 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4189</v>
+        <v>1797</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Geastrum pectinatum</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Östansbo vid Hundbäcken, Dlr</t>
+          <t>Östansbo, Hundbäcken, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>509176.1411202319</v>
+        <v>509096.042364086</v>
       </c>
       <c r="R2" t="n">
-        <v>6663496.209875446</v>
+        <v>6663775.208665404</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -760,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-10-30</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -770,7 +763,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-10-30</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -795,12 +788,17 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>100-årig skog</t>
+          <t>inslag av tall</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>grov gran</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>gammal myrstack</t>
+          <t>grov gran</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -818,10 +816,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74249883</v>
+        <v>16798841</v>
       </c>
       <c r="B3" t="n">
-        <v>89356</v>
+        <v>88853</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -834,25 +832,33 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>4189</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Geastrum pectinatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>Pers.:Pers.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -860,10 +866,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>509213.9838288009</v>
+        <v>509176.1411202319</v>
       </c>
       <c r="R3" t="n">
-        <v>6663342.23806499</v>
+        <v>6663496.209875446</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -890,7 +896,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-11-14</t>
+          <t>2014-10-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -900,7 +906,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-11-14</t>
+          <t>2014-10-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -920,27 +926,17 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Lågörtgranskog</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>mossigt</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>100-årig skog</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>gammal granlåga # Picea abies</t>
+          <t>gammal myrstack</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -958,10 +954,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74249894</v>
+        <v>74249883</v>
       </c>
       <c r="B4" t="n">
-        <v>89851</v>
+        <v>89356</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -970,25 +966,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5467</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1000,10 +996,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>509150.8558177771</v>
+        <v>509213.9838288009</v>
       </c>
       <c r="R4" t="n">
-        <v>6663421.85664573</v>
+        <v>6663342.23806499</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1080,7 +1076,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>gammal klen granlåga # Picea abies</t>
+          <t>gammal granlåga # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1098,10 +1094,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96640115</v>
+        <v>74249894</v>
       </c>
       <c r="B5" t="n">
-        <v>90319</v>
+        <v>89851</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1110,41 +1106,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>5467</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hundbäcken, Östansbo, Dlr</t>
+          <t>Östansbo vid Hundbäcken, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>509116.3226223197</v>
+        <v>509150.8558177771</v>
       </c>
       <c r="R5" t="n">
-        <v>6663249.75091619</v>
+        <v>6663421.85664573</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1171,7 +1166,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2018-11-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1181,7 +1176,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2018-11-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1201,7 +1196,12 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Lågörtgranskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>mossigt</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>gammal klen granlåga # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96640119</v>
+        <v>96640115</v>
       </c>
       <c r="B6" t="n">
-        <v>90674</v>
+        <v>90319</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1250,21 +1250,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96905129</v>
+        <v>96640119</v>
       </c>
       <c r="B7" t="n">
-        <v>77959</v>
+        <v>90674</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1382,25 +1382,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1797</v>
+        <v>5964</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1409,14 +1409,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Östansbo, Hundbäcken, Dlr</t>
+          <t>Hundbäcken, Östansbo, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>509157.4464191007</v>
+        <v>509116.3226223197</v>
       </c>
       <c r="R7" t="n">
-        <v>6663582.916298064</v>
+        <v>6663249.75091619</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1474,6 +1474,21 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Lågörtgranskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1491,10 +1506,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96905141</v>
+        <v>96905129</v>
       </c>
       <c r="B8" t="n">
-        <v>89832</v>
+        <v>77959</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1503,25 +1518,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>1797</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1534,10 +1549,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>509087.8970259681</v>
+        <v>509157.4464191007</v>
       </c>
       <c r="R8" t="n">
-        <v>6663434.16527954</v>
+        <v>6663582.916298064</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1595,11 +1610,6 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Lågörtgranskog</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>barklös granlåga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1617,10 +1627,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96905066</v>
+        <v>96905141</v>
       </c>
       <c r="B9" t="n">
-        <v>77959</v>
+        <v>89832</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1629,25 +1639,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1797</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1660,10 +1670,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>509096.042364086</v>
+        <v>509087.8970259681</v>
       </c>
       <c r="R9" t="n">
-        <v>6663775.208665404</v>
+        <v>6663434.16527954</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1723,19 +1733,9 @@
           <t>Lågörtgranskog</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>inslag av tall</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>grov gran</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>grov gran</t>
+          <t>barklös granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>

--- a/artfynd/A 1912-2023.xlsx
+++ b/artfynd/A 1912-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96905066</v>
+        <v>16798841</v>
       </c>
       <c r="B2" t="n">
-        <v>77959</v>
+        <v>88853</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,48 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1797</v>
+        <v>4189</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Geastrum pectinatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>Pers.:Pers.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Östansbo, Hundbäcken, Dlr</t>
+          <t>Östansbo vid Hundbäcken, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>509096.042364086</v>
+        <v>509176.1411202319</v>
       </c>
       <c r="R2" t="n">
-        <v>6663775.208665404</v>
+        <v>6663496.209875446</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -753,7 +760,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2014-10-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +770,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2014-10-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -788,17 +795,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>inslag av tall</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>grov gran</t>
+          <t>100-årig skog</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>grov gran</t>
+          <t>gammal myrstack</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -816,10 +818,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16798841</v>
+        <v>74249883</v>
       </c>
       <c r="B3" t="n">
-        <v>88853</v>
+        <v>89356</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -832,33 +834,25 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4189</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Geastrum pectinatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -866,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>509176.1411202319</v>
+        <v>509213.9838288009</v>
       </c>
       <c r="R3" t="n">
-        <v>6663496.209875446</v>
+        <v>6663342.23806499</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -896,7 +890,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2014-10-30</t>
+          <t>2018-11-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -906,7 +900,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2014-10-30</t>
+          <t>2018-11-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -926,17 +920,27 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Lågörtgranskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>100-årig skog</t>
+          <t>mossigt</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>gammal myrstack</t>
+          <t>gammal granlåga # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -954,10 +958,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74249883</v>
+        <v>74249894</v>
       </c>
       <c r="B4" t="n">
-        <v>89356</v>
+        <v>89851</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -966,25 +970,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>5467</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -996,10 +1000,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>509213.9838288009</v>
+        <v>509150.8558177771</v>
       </c>
       <c r="R4" t="n">
-        <v>6663342.23806499</v>
+        <v>6663421.85664573</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1076,7 +1080,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>gammal granlåga # Picea abies</t>
+          <t>gammal klen granlåga # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1094,10 +1098,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74249894</v>
+        <v>96640115</v>
       </c>
       <c r="B5" t="n">
-        <v>89851</v>
+        <v>90319</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1106,40 +1110,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5467</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Östansbo vid Hundbäcken, Dlr</t>
+          <t>Hundbäcken, Östansbo, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>509150.8558177771</v>
+        <v>509116.3226223197</v>
       </c>
       <c r="R5" t="n">
-        <v>6663421.85664573</v>
+        <v>6663249.75091619</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1166,7 +1171,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-11-14</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1176,7 +1181,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-11-14</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1196,12 +1201,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>mossigt</t>
+          <t>Lågörtgranskog</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>gammal klen granlåga # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96640115</v>
+        <v>96640119</v>
       </c>
       <c r="B6" t="n">
-        <v>90319</v>
+        <v>90674</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1250,21 +1250,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96640119</v>
+        <v>96905129</v>
       </c>
       <c r="B7" t="n">
-        <v>90674</v>
+        <v>77959</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1382,25 +1382,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5964</v>
+        <v>1797</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1409,14 +1409,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hundbäcken, Östansbo, Dlr</t>
+          <t>Östansbo, Hundbäcken, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>509116.3226223197</v>
+        <v>509157.4464191007</v>
       </c>
       <c r="R7" t="n">
-        <v>6663249.75091619</v>
+        <v>6663582.916298064</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1474,21 +1474,6 @@
       <c r="AH7" t="inlineStr">
         <is>
           <t>Lågörtgranskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1506,10 +1491,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96905129</v>
+        <v>96905141</v>
       </c>
       <c r="B8" t="n">
-        <v>77959</v>
+        <v>89832</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1518,25 +1503,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1797</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1549,10 +1534,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>509157.4464191007</v>
+        <v>509087.8970259681</v>
       </c>
       <c r="R8" t="n">
-        <v>6663582.916298064</v>
+        <v>6663434.16527954</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1610,6 +1595,11 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>Lågörtgranskog</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>barklös granlåga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1627,10 +1617,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96905141</v>
+        <v>96905066</v>
       </c>
       <c r="B9" t="n">
-        <v>89832</v>
+        <v>77959</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1639,25 +1629,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>1797</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1670,10 +1660,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>509087.8970259681</v>
+        <v>509096.042364086</v>
       </c>
       <c r="R9" t="n">
-        <v>6663434.16527954</v>
+        <v>6663775.208665404</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1733,9 +1723,19 @@
           <t>Lågörtgranskog</t>
         </is>
       </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>inslag av tall</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>grov gran</t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>barklös granlåga</t>
+          <t>grov gran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
